--- a/Code/Results/Cases/Case_0_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_156/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9140526582972477</v>
+        <v>1.007233763412072</v>
       </c>
       <c r="D2">
-        <v>0.9282055056387091</v>
+        <v>1.00991325466653</v>
       </c>
       <c r="E2">
-        <v>0.9311045951855766</v>
+        <v>1.009822179915485</v>
       </c>
       <c r="F2">
-        <v>0.8856897368278752</v>
+        <v>1.005418171149548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9391475667161763</v>
+        <v>1.012506593353203</v>
       </c>
       <c r="K2">
-        <v>0.9407647606545276</v>
+        <v>1.012785033388608</v>
       </c>
       <c r="L2">
-        <v>0.9436152013347197</v>
+        <v>1.012694234278073</v>
       </c>
       <c r="M2">
-        <v>0.8990102898461114</v>
+        <v>1.008303619376537</v>
       </c>
       <c r="N2">
-        <v>0.9813237856062562</v>
+        <v>1.007964755916351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9260989590031803</v>
+        <v>1.009287095432225</v>
       </c>
       <c r="D3">
-        <v>0.938773340539037</v>
+        <v>1.011764087100809</v>
       </c>
       <c r="E3">
-        <v>0.941274288297981</v>
+        <v>1.011604225035833</v>
       </c>
       <c r="F3">
-        <v>0.9014296559503044</v>
+        <v>1.008140331328462</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9488291841512659</v>
+        <v>1.014185389888848</v>
       </c>
       <c r="K3">
-        <v>0.9502545858235414</v>
+        <v>1.014436890927127</v>
       </c>
       <c r="L3">
-        <v>0.952718131852557</v>
+        <v>1.014277476572159</v>
       </c>
       <c r="M3">
-        <v>0.9135011612409437</v>
+        <v>1.010823321684792</v>
       </c>
       <c r="N3">
-        <v>0.984882550288121</v>
+        <v>1.008557101822972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9334882017800015</v>
+        <v>1.010609914077341</v>
       </c>
       <c r="D4">
-        <v>0.9452642403163558</v>
+        <v>1.012956425105848</v>
       </c>
       <c r="E4">
-        <v>0.947522519273723</v>
+        <v>1.012752198477129</v>
       </c>
       <c r="F4">
-        <v>0.9110496631400306</v>
+        <v>1.009894655252363</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9547611694462077</v>
+        <v>1.015265863463752</v>
       </c>
       <c r="K4">
-        <v>0.9560714777571319</v>
+        <v>1.015500096321514</v>
       </c>
       <c r="L4">
-        <v>0.9582984718263401</v>
+        <v>1.015296411973175</v>
       </c>
       <c r="M4">
-        <v>0.9223550733292074</v>
+        <v>1.012446481218014</v>
       </c>
       <c r="N4">
-        <v>0.9870611476374677</v>
+        <v>1.008937390812613</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9365074422037022</v>
+        <v>1.011164667208386</v>
       </c>
       <c r="D5">
-        <v>0.9479182173258515</v>
+        <v>1.013456451286343</v>
       </c>
       <c r="E5">
-        <v>0.9500776504982068</v>
+        <v>1.013233607139252</v>
       </c>
       <c r="F5">
-        <v>0.9149736687579281</v>
+        <v>1.010630526950307</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9571832745749554</v>
+        <v>1.015718730223423</v>
       </c>
       <c r="K5">
-        <v>0.958447106863614</v>
+        <v>1.015945741712944</v>
       </c>
       <c r="L5">
-        <v>0.9605775879441445</v>
+        <v>1.015723475712681</v>
       </c>
       <c r="M5">
-        <v>0.9259657589261298</v>
+        <v>1.013127169341355</v>
       </c>
       <c r="N5">
-        <v>0.9879500692795931</v>
+        <v>1.009096556300793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9370095290399436</v>
+        <v>1.011257733956608</v>
       </c>
       <c r="D6">
-        <v>0.948359661602342</v>
+        <v>1.01354033646001</v>
       </c>
       <c r="E6">
-        <v>0.9505026736234949</v>
+        <v>1.013314368262514</v>
       </c>
       <c r="F6">
-        <v>0.9156258605459415</v>
+        <v>1.01075398803822</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9575859580039118</v>
+        <v>1.015794689376723</v>
       </c>
       <c r="K6">
-        <v>0.9588420923674557</v>
+        <v>1.016020490579834</v>
       </c>
       <c r="L6">
-        <v>0.9609565309835801</v>
+        <v>1.015795106326709</v>
       </c>
       <c r="M6">
-        <v>0.9265658216881407</v>
+        <v>1.013241362293346</v>
       </c>
       <c r="N6">
-        <v>0.9880978139186084</v>
+        <v>1.009123239652299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9335288758284868</v>
+        <v>1.01061733201275</v>
       </c>
       <c r="D7">
-        <v>0.9452999868348145</v>
+        <v>1.012963111283718</v>
       </c>
       <c r="E7">
-        <v>0.9475569330309125</v>
+        <v>1.012758635757744</v>
       </c>
       <c r="F7">
-        <v>0.9111025506079322</v>
+        <v>1.009904494403763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9547938059803492</v>
+        <v>1.015271920013607</v>
       </c>
       <c r="K7">
-        <v>0.9561034860676392</v>
+        <v>1.015506056230265</v>
       </c>
       <c r="L7">
-        <v>0.9583291794384198</v>
+        <v>1.015302123479047</v>
       </c>
       <c r="M7">
-        <v>0.9224037414074744</v>
+        <v>1.01245558317387</v>
       </c>
       <c r="N7">
-        <v>0.9870731280813282</v>
+        <v>1.008939520358412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9182142572109843</v>
+        <v>1.007928923536867</v>
       </c>
       <c r="D8">
-        <v>0.9318543384264194</v>
+        <v>1.010539862416146</v>
       </c>
       <c r="E8">
-        <v>0.934615506594759</v>
+        <v>1.010425509666389</v>
       </c>
       <c r="F8">
-        <v>0.8911359973716266</v>
+        <v>1.006339639084469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9424936409848425</v>
+        <v>1.013075173167773</v>
       </c>
       <c r="K8">
-        <v>0.9440439875891824</v>
+        <v>1.01334447472508</v>
       </c>
       <c r="L8">
-        <v>0.9467605744803343</v>
+        <v>1.013230459314931</v>
       </c>
       <c r="M8">
-        <v>0.9040248114571675</v>
+        <v>1.009156696789252</v>
       </c>
       <c r="N8">
-        <v>0.9825540191568518</v>
+        <v>1.008165568793857</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8875573005238262</v>
+        <v>1.003145426914801</v>
       </c>
       <c r="D9">
-        <v>0.9050274579205637</v>
+        <v>1.006228032427489</v>
       </c>
       <c r="E9">
-        <v>0.9088152843535788</v>
+        <v>1.00627366806349</v>
       </c>
       <c r="F9">
-        <v>0.8507576190914957</v>
+        <v>1.000001172251525</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9178175619489021</v>
+        <v>1.009158333178677</v>
       </c>
       <c r="K9">
-        <v>0.919875459686773</v>
+        <v>1.00949089024572</v>
       </c>
       <c r="L9">
-        <v>0.923584010960857</v>
+        <v>1.009536367171991</v>
       </c>
       <c r="M9">
-        <v>0.8668460707880965</v>
+        <v>1.0032858352567</v>
       </c>
       <c r="N9">
-        <v>0.9734823265983695</v>
+        <v>1.006778356089765</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8635694472506732</v>
+        <v>0.9999231654433739</v>
       </c>
       <c r="D10">
-        <v>0.8841278628694889</v>
+        <v>1.003323481638484</v>
       </c>
       <c r="E10">
-        <v>0.8887389548856</v>
+        <v>1.00347666406088</v>
       </c>
       <c r="F10">
-        <v>0.8186423681695324</v>
+        <v>0.9957340015561779</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8984791326929622</v>
+        <v>1.006514390314371</v>
       </c>
       <c r="K10">
-        <v>0.9009600487942899</v>
+        <v>1.00689004150809</v>
       </c>
       <c r="L10">
-        <v>0.9054565818339448</v>
+        <v>1.007042636510944</v>
       </c>
       <c r="M10">
-        <v>0.8372944969267302</v>
+        <v>0.9993299166240083</v>
       </c>
       <c r="N10">
-        <v>0.9663884817762021</v>
+        <v>1.005837174268722</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8519585285669412</v>
+        <v>0.9985195009428358</v>
       </c>
       <c r="D11">
-        <v>0.8740430896800644</v>
+        <v>1.002058230093307</v>
       </c>
       <c r="E11">
-        <v>0.8790601321508557</v>
+        <v>1.002258213239049</v>
       </c>
       <c r="F11">
-        <v>0.8028829390921344</v>
+        <v>0.9938756573484836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8891131552348178</v>
+        <v>1.005361353862241</v>
       </c>
       <c r="K11">
-        <v>0.8918077822751206</v>
+        <v>1.005755897172606</v>
       </c>
       <c r="L11">
-        <v>0.8966903981779423</v>
+        <v>1.005955082248306</v>
       </c>
       <c r="M11">
-        <v>0.8228079381531131</v>
+        <v>0.9976062853082815</v>
       </c>
       <c r="N11">
-        <v>0.9629628416235215</v>
+        <v>1.005425605319509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8474112708057908</v>
+        <v>0.9979968113523655</v>
       </c>
       <c r="D12">
-        <v>0.8700993505834347</v>
+        <v>1.001587085480181</v>
       </c>
       <c r="E12">
-        <v>0.8752768379166259</v>
+        <v>1.001804489229527</v>
       </c>
       <c r="F12">
-        <v>0.7966662508114103</v>
+        <v>0.9931837220361913</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8854443999813743</v>
+        <v>1.004931797492528</v>
       </c>
       <c r="K12">
-        <v>0.8882244265223033</v>
+        <v>1.005333394152456</v>
       </c>
       <c r="L12">
-        <v>0.8932591848869809</v>
+        <v>1.005549917675708</v>
       </c>
       <c r="M12">
-        <v>0.8170970282764639</v>
+        <v>0.9969643836886336</v>
       </c>
       <c r="N12">
-        <v>0.9616232527172973</v>
+        <v>1.005272112154014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8483983466283102</v>
+        <v>0.9981089898545343</v>
       </c>
       <c r="D13">
-        <v>0.8709551372611591</v>
+        <v>1.00168820133247</v>
       </c>
       <c r="E13">
-        <v>0.8760977243900165</v>
+        <v>1.001901866611172</v>
       </c>
       <c r="F13">
-        <v>0.7980179840551624</v>
+        <v>0.9933322208667903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8862408085070254</v>
+        <v>1.005023996734403</v>
       </c>
       <c r="K13">
-        <v>0.8890022136119504</v>
+        <v>1.005424078780855</v>
       </c>
       <c r="L13">
-        <v>0.8940038994044488</v>
+        <v>1.005636881635681</v>
       </c>
       <c r="M13">
-        <v>0.8183385922974469</v>
+        <v>0.9971021502599338</v>
       </c>
       <c r="N13">
-        <v>0.9619139319514486</v>
+        <v>1.00530506513454</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8515878074720123</v>
+        <v>0.9984763221568793</v>
       </c>
       <c r="D14">
-        <v>0.8737214469399289</v>
+        <v>1.002019309300046</v>
       </c>
       <c r="E14">
-        <v>0.8787515382482656</v>
+        <v>1.002220731678253</v>
       </c>
       <c r="F14">
-        <v>0.8023771041334813</v>
+        <v>0.9938184960838866</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8888140685944427</v>
+        <v>1.005325872665321</v>
       </c>
       <c r="K14">
-        <v>0.8915156212754285</v>
+        <v>1.005720998267354</v>
       </c>
       <c r="L14">
-        <v>0.8964106203090445</v>
+        <v>1.005921615865152</v>
       </c>
       <c r="M14">
-        <v>0.8223431732016541</v>
+        <v>0.9975532599130635</v>
       </c>
       <c r="N14">
-        <v>0.9628535840224931</v>
+        <v>1.005412930209645</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8535199803236817</v>
+        <v>0.9987024733256594</v>
       </c>
       <c r="D15">
-        <v>0.8753980674473426</v>
+        <v>1.002223159157143</v>
       </c>
       <c r="E15">
-        <v>0.8803602098806573</v>
+        <v>1.00241704320311</v>
       </c>
       <c r="F15">
-        <v>0.8050116021689862</v>
+        <v>0.9941178838525471</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8903728603251303</v>
+        <v>1.005511699354269</v>
       </c>
       <c r="K15">
-        <v>0.8930383876754251</v>
+        <v>1.005903775928104</v>
       </c>
       <c r="L15">
-        <v>0.8978688858788739</v>
+        <v>1.006096890186832</v>
       </c>
       <c r="M15">
-        <v>0.8247639260803812</v>
+        <v>0.9978309805352875</v>
       </c>
       <c r="N15">
-        <v>0.9634231132373442</v>
+        <v>1.005479307154862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8643103936695274</v>
+        <v>1.000016141277716</v>
       </c>
       <c r="D16">
-        <v>0.8847721312888688</v>
+        <v>1.003407289689546</v>
       </c>
       <c r="E16">
-        <v>0.8893574924073131</v>
+        <v>1.003557371151442</v>
       </c>
       <c r="F16">
-        <v>0.8196428490453821</v>
+        <v>0.9958571041249782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8990767196708479</v>
+        <v>1.006590737850094</v>
       </c>
       <c r="K16">
-        <v>0.9015442036802443</v>
+        <v>1.006965140220007</v>
       </c>
       <c r="L16">
-        <v>0.9060162100819042</v>
+        <v>1.007114647702512</v>
       </c>
       <c r="M16">
-        <v>0.8382145683671191</v>
+        <v>0.9994440778352315</v>
       </c>
       <c r="N16">
-        <v>0.9666073096985163</v>
+        <v>1.005864402752942</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8707216689334433</v>
+        <v>1.000837890047494</v>
       </c>
       <c r="D17">
-        <v>0.8903503638408221</v>
+        <v>1.004148012526776</v>
       </c>
       <c r="E17">
-        <v>0.8947139165628315</v>
+        <v>1.004270681252198</v>
       </c>
       <c r="F17">
-        <v>0.8282756784369788</v>
+        <v>0.9969451783998144</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9042469502650238</v>
+        <v>1.00726537143314</v>
       </c>
       <c r="K17">
-        <v>0.906599207794202</v>
+        <v>1.007628750151266</v>
       </c>
       <c r="L17">
-        <v>0.9108595149767037</v>
+        <v>1.007750960917954</v>
       </c>
       <c r="M17">
-        <v>0.8461552668192214</v>
+        <v>1.000453025260632</v>
       </c>
       <c r="N17">
-        <v>0.9685017282170503</v>
+        <v>1.006104875074253</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8743473971358245</v>
+        <v>1.001316394315355</v>
       </c>
       <c r="D18">
-        <v>0.8935077251210122</v>
+        <v>1.004579336601009</v>
       </c>
       <c r="E18">
-        <v>0.8977464864405663</v>
+        <v>1.004686038224455</v>
       </c>
       <c r="F18">
-        <v>0.833139394844856</v>
+        <v>0.9975788125116326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9071703325779055</v>
+        <v>1.007658085910058</v>
       </c>
       <c r="K18">
-        <v>0.9094582061186511</v>
+        <v>1.008015057034475</v>
       </c>
       <c r="L18">
-        <v>0.9135991953638142</v>
+        <v>1.008121365968805</v>
       </c>
       <c r="M18">
-        <v>0.8506302527457277</v>
+        <v>1.001040499793651</v>
       </c>
       <c r="N18">
-        <v>0.969573729896168</v>
+        <v>1.006244750435481</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8755655785116558</v>
+        <v>1.001479416177004</v>
       </c>
       <c r="D19">
-        <v>0.8945689814677942</v>
+        <v>1.00472628477985</v>
       </c>
       <c r="E19">
-        <v>0.8987659169881163</v>
+        <v>1.004827545758709</v>
       </c>
       <c r="F19">
-        <v>0.8347706756898248</v>
+        <v>0.9977946941425103</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9081524479384747</v>
+        <v>1.007791858856405</v>
       </c>
       <c r="K19">
-        <v>0.9104188137597397</v>
+        <v>1.00814664890886</v>
       </c>
       <c r="L19">
-        <v>0.9145197772705258</v>
+        <v>1.0082475390508</v>
       </c>
       <c r="M19">
-        <v>0.8521313292820789</v>
+        <v>1.001240641009048</v>
       </c>
       <c r="N19">
-        <v>0.9699339967684169</v>
+        <v>1.006292378869608</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8700458763134504</v>
+        <v>1.000749808057148</v>
       </c>
       <c r="D20">
-        <v>0.8897620865055849</v>
+        <v>1.004068615447174</v>
       </c>
       <c r="E20">
-        <v>0.894148949773345</v>
+        <v>1.004194222981725</v>
       </c>
       <c r="F20">
-        <v>0.8273677073906439</v>
+        <v>0.996828544431229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9037020242123943</v>
+        <v>1.007193071390838</v>
       </c>
       <c r="K20">
-        <v>0.9060663438428366</v>
+        <v>1.007557630526282</v>
       </c>
       <c r="L20">
-        <v>0.910348922072081</v>
+        <v>1.007682767903857</v>
       </c>
       <c r="M20">
-        <v>0.845319956648408</v>
+        <v>1.000344881465635</v>
       </c>
       <c r="N20">
-        <v>0.9683019692319139</v>
+        <v>1.0060791149003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8506555827250396</v>
+        <v>0.9983681883574549</v>
       </c>
       <c r="D21">
-        <v>0.8729127330581828</v>
+        <v>1.001921838967306</v>
       </c>
       <c r="E21">
-        <v>0.877975661937806</v>
+        <v>1.00212686554567</v>
       </c>
       <c r="F21">
-        <v>0.8011043532903042</v>
+        <v>0.9936753466134783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8880619669291303</v>
+        <v>1.005237013008494</v>
       </c>
       <c r="K21">
-        <v>0.890780963590782</v>
+        <v>1.005633597157729</v>
       </c>
       <c r="L21">
-        <v>0.8957071174757184</v>
+        <v>1.005837802090326</v>
       </c>
       <c r="M21">
-        <v>0.8211738244894292</v>
+        <v>0.997420465916857</v>
       </c>
       <c r="N21">
-        <v>0.9625788773571071</v>
+        <v>1.005381183798787</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8370627174866397</v>
+        <v>0.9968631906893449</v>
       </c>
       <c r="D22">
-        <v>0.8611368255771537</v>
+        <v>1.000565264582736</v>
       </c>
       <c r="E22">
-        <v>0.8666827094349827</v>
+        <v>1.000820438517567</v>
       </c>
       <c r="F22">
-        <v>0.7824139123831328</v>
+        <v>0.9916831474676431</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8770939030130249</v>
+        <v>1.003999810658025</v>
       </c>
       <c r="K22">
-        <v>0.8800720348222812</v>
+        <v>1.004416738918358</v>
       </c>
       <c r="L22">
-        <v>0.8854551638517658</v>
+        <v>1.00467084750642</v>
       </c>
       <c r="M22">
-        <v>0.8040134982193647</v>
+        <v>0.9955720865436291</v>
       </c>
       <c r="N22">
-        <v>0.9585795938444168</v>
+        <v>1.004938784099908</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8444250944531123</v>
+        <v>0.9976617515572034</v>
       </c>
       <c r="D23">
-        <v>0.8675113227901694</v>
+        <v>1.001285068720394</v>
       </c>
       <c r="E23">
-        <v>0.87279464146826</v>
+        <v>1.001513637737119</v>
       </c>
       <c r="F23">
-        <v>0.7925689704264541</v>
+        <v>0.9927401879471073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8830349491267281</v>
+        <v>1.004656384205627</v>
       </c>
       <c r="K23">
-        <v>0.885871597408324</v>
+        <v>1.005062507507651</v>
       </c>
       <c r="L23">
-        <v>0.8910065713630869</v>
+        <v>1.005290142572133</v>
       </c>
       <c r="M23">
-        <v>0.8133343777039818</v>
+        <v>0.9965528862430468</v>
       </c>
       <c r="N23">
-        <v>0.9607442415370203</v>
+        <v>1.00517365239791</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8703515862485985</v>
+        <v>1.000789611011587</v>
       </c>
       <c r="D24">
-        <v>0.8900281984442466</v>
+        <v>1.004104493814722</v>
       </c>
       <c r="E24">
-        <v>0.8944045146630762</v>
+        <v>1.004228773359167</v>
       </c>
       <c r="F24">
-        <v>0.8277785050823736</v>
+        <v>0.9968812494534708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9039485353166612</v>
+        <v>1.007225743100768</v>
       </c>
       <c r="K24">
-        <v>0.9063073959694133</v>
+        <v>1.007589768787543</v>
       </c>
       <c r="L24">
-        <v>0.9105798981457683</v>
+        <v>1.007713583694287</v>
       </c>
       <c r="M24">
-        <v>0.8456978763165232</v>
+        <v>1.000393750163362</v>
       </c>
       <c r="N24">
-        <v>0.9683923326645173</v>
+        <v>1.006090756012724</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8960104594464409</v>
+        <v>1.004387773426811</v>
       </c>
       <c r="D25">
-        <v>0.9124120256491453</v>
+        <v>1.007347887935683</v>
       </c>
       <c r="E25">
-        <v>0.9159141670412037</v>
+        <v>1.007352013251212</v>
       </c>
       <c r="F25">
-        <v>0.8619558669468522</v>
+        <v>1.001646885398629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9246270358793404</v>
+        <v>1.010176558077595</v>
       </c>
       <c r="K25">
-        <v>0.9265414270448922</v>
+        <v>1.010492603475837</v>
       </c>
       <c r="L25">
-        <v>0.9299749773144618</v>
+        <v>1.010496715010997</v>
       </c>
       <c r="M25">
-        <v>0.8771561861835319</v>
+        <v>1.004810763952434</v>
       </c>
       <c r="N25">
-        <v>0.9759847238044915</v>
+        <v>1.007139822571723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_156/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.007233763412072</v>
+        <v>0.9140526582972472</v>
       </c>
       <c r="D2">
-        <v>1.00991325466653</v>
+        <v>0.9282055056387086</v>
       </c>
       <c r="E2">
-        <v>1.009822179915485</v>
+        <v>0.9311045951855762</v>
       </c>
       <c r="F2">
-        <v>1.005418171149548</v>
+        <v>0.8856897368278743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.012506593353203</v>
+        <v>0.9391475667161758</v>
       </c>
       <c r="K2">
-        <v>1.012785033388608</v>
+        <v>0.940764760654527</v>
       </c>
       <c r="L2">
-        <v>1.012694234278073</v>
+        <v>0.9436152013347191</v>
       </c>
       <c r="M2">
-        <v>1.008303619376537</v>
+        <v>0.8990102898461105</v>
       </c>
       <c r="N2">
-        <v>1.007964755916351</v>
+        <v>0.9813237856062561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.009287095432225</v>
+        <v>0.9260989590031808</v>
       </c>
       <c r="D3">
-        <v>1.011764087100809</v>
+        <v>0.9387733405390376</v>
       </c>
       <c r="E3">
-        <v>1.011604225035833</v>
+        <v>0.9412742882979818</v>
       </c>
       <c r="F3">
-        <v>1.008140331328462</v>
+        <v>0.901429655950305</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.014185389888848</v>
+        <v>0.9488291841512666</v>
       </c>
       <c r="K3">
-        <v>1.014436890927127</v>
+        <v>0.9502545858235421</v>
       </c>
       <c r="L3">
-        <v>1.014277476572159</v>
+        <v>0.9527181318525576</v>
       </c>
       <c r="M3">
-        <v>1.010823321684792</v>
+        <v>0.9135011612409443</v>
       </c>
       <c r="N3">
-        <v>1.008557101822972</v>
+        <v>0.9848825502881213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010609914077341</v>
+        <v>0.9334882017800016</v>
       </c>
       <c r="D4">
-        <v>1.012956425105848</v>
+        <v>0.9452642403163555</v>
       </c>
       <c r="E4">
-        <v>1.012752198477129</v>
+        <v>0.9475225192737228</v>
       </c>
       <c r="F4">
-        <v>1.009894655252363</v>
+        <v>0.9110496631400308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.015265863463752</v>
+        <v>0.9547611694462076</v>
       </c>
       <c r="K4">
-        <v>1.015500096321514</v>
+        <v>0.9560714777571316</v>
       </c>
       <c r="L4">
-        <v>1.015296411973175</v>
+        <v>0.95829847182634</v>
       </c>
       <c r="M4">
-        <v>1.012446481218014</v>
+        <v>0.9223550733292075</v>
       </c>
       <c r="N4">
-        <v>1.008937390812613</v>
+        <v>0.9870611476374679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011164667208386</v>
+        <v>0.9365074422037009</v>
       </c>
       <c r="D5">
-        <v>1.013456451286343</v>
+        <v>0.9479182173258501</v>
       </c>
       <c r="E5">
-        <v>1.013233607139252</v>
+        <v>0.9500776504982054</v>
       </c>
       <c r="F5">
-        <v>1.010630526950307</v>
+        <v>0.9149736687579271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.015718730223423</v>
+        <v>0.957183274574954</v>
       </c>
       <c r="K5">
-        <v>1.015945741712944</v>
+        <v>0.9584471068636126</v>
       </c>
       <c r="L5">
-        <v>1.015723475712681</v>
+        <v>0.9605775879441431</v>
       </c>
       <c r="M5">
-        <v>1.013127169341355</v>
+        <v>0.9259657589261288</v>
       </c>
       <c r="N5">
-        <v>1.009096556300793</v>
+        <v>0.9879500692795927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.011257733956608</v>
+        <v>0.9370095290399443</v>
       </c>
       <c r="D6">
-        <v>1.01354033646001</v>
+        <v>0.9483596616023422</v>
       </c>
       <c r="E6">
-        <v>1.013314368262514</v>
+        <v>0.9505026736234951</v>
       </c>
       <c r="F6">
-        <v>1.01075398803822</v>
+        <v>0.9156258605459423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.015794689376723</v>
+        <v>0.9575859580039123</v>
       </c>
       <c r="K6">
-        <v>1.016020490579834</v>
+        <v>0.9588420923674561</v>
       </c>
       <c r="L6">
-        <v>1.015795106326709</v>
+        <v>0.9609565309835804</v>
       </c>
       <c r="M6">
-        <v>1.013241362293346</v>
+        <v>0.9265658216881417</v>
       </c>
       <c r="N6">
-        <v>1.009123239652299</v>
+        <v>0.9880978139186087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.01061733201275</v>
+        <v>0.9335288758284879</v>
       </c>
       <c r="D7">
-        <v>1.012963111283718</v>
+        <v>0.9452999868348154</v>
       </c>
       <c r="E7">
-        <v>1.012758635757744</v>
+        <v>0.947556933030913</v>
       </c>
       <c r="F7">
-        <v>1.009904494403763</v>
+        <v>0.9111025506079331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.015271920013607</v>
+        <v>0.9547938059803502</v>
       </c>
       <c r="K7">
-        <v>1.015506056230265</v>
+        <v>0.95610348606764</v>
       </c>
       <c r="L7">
-        <v>1.015302123479047</v>
+        <v>0.9583291794384203</v>
       </c>
       <c r="M7">
-        <v>1.01245558317387</v>
+        <v>0.9224037414074752</v>
       </c>
       <c r="N7">
-        <v>1.008939520358412</v>
+        <v>0.9870731280813285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.007928923536867</v>
+        <v>0.9182142572109849</v>
       </c>
       <c r="D8">
-        <v>1.010539862416146</v>
+        <v>0.93185433842642</v>
       </c>
       <c r="E8">
-        <v>1.010425509666389</v>
+        <v>0.9346155065947593</v>
       </c>
       <c r="F8">
-        <v>1.006339639084469</v>
+        <v>0.8911359973716273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.013075173167773</v>
+        <v>0.9424936409848428</v>
       </c>
       <c r="K8">
-        <v>1.01334447472508</v>
+        <v>0.9440439875891831</v>
       </c>
       <c r="L8">
-        <v>1.013230459314931</v>
+        <v>0.9467605744803348</v>
       </c>
       <c r="M8">
-        <v>1.009156696789252</v>
+        <v>0.9040248114571682</v>
       </c>
       <c r="N8">
-        <v>1.008165568793857</v>
+        <v>0.9825540191568518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003145426914801</v>
+        <v>0.8875573005238275</v>
       </c>
       <c r="D9">
-        <v>1.006228032427489</v>
+        <v>0.9050274579205655</v>
       </c>
       <c r="E9">
-        <v>1.00627366806349</v>
+        <v>0.9088152843535799</v>
       </c>
       <c r="F9">
-        <v>1.000001172251525</v>
+        <v>0.8507576190914975</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.009158333178677</v>
+        <v>0.9178175619489034</v>
       </c>
       <c r="K9">
-        <v>1.00949089024572</v>
+        <v>0.9198754596867744</v>
       </c>
       <c r="L9">
-        <v>1.009536367171991</v>
+        <v>0.923584010960858</v>
       </c>
       <c r="M9">
-        <v>1.0032858352567</v>
+        <v>0.8668460707880983</v>
       </c>
       <c r="N9">
-        <v>1.006778356089765</v>
+        <v>0.97348232659837</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999231654433739</v>
+        <v>0.8635694472506739</v>
       </c>
       <c r="D10">
-        <v>1.003323481638484</v>
+        <v>0.8841278628694895</v>
       </c>
       <c r="E10">
-        <v>1.00347666406088</v>
+        <v>0.8887389548856003</v>
       </c>
       <c r="F10">
-        <v>0.9957340015561779</v>
+        <v>0.8186423681695335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.006514390314371</v>
+        <v>0.8984791326929629</v>
       </c>
       <c r="K10">
-        <v>1.00689004150809</v>
+        <v>0.9009600487942905</v>
       </c>
       <c r="L10">
-        <v>1.007042636510944</v>
+        <v>0.9054565818339456</v>
       </c>
       <c r="M10">
-        <v>0.9993299166240083</v>
+        <v>0.8372944969267312</v>
       </c>
       <c r="N10">
-        <v>1.005837174268722</v>
+        <v>0.9663884817762023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9985195009428358</v>
+        <v>0.8519585285669399</v>
       </c>
       <c r="D11">
-        <v>1.002058230093307</v>
+        <v>0.8740430896800631</v>
       </c>
       <c r="E11">
-        <v>1.002258213239049</v>
+        <v>0.8790601321508545</v>
       </c>
       <c r="F11">
-        <v>0.9938756573484836</v>
+        <v>0.8028829390921334</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.005361353862241</v>
+        <v>0.8891131552348166</v>
       </c>
       <c r="K11">
-        <v>1.005755897172606</v>
+        <v>0.8918077822751191</v>
       </c>
       <c r="L11">
-        <v>1.005955082248306</v>
+        <v>0.8966903981779414</v>
       </c>
       <c r="M11">
-        <v>0.9976062853082815</v>
+        <v>0.822807938153112</v>
       </c>
       <c r="N11">
-        <v>1.005425605319509</v>
+        <v>0.9629628416235212</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9979968113523655</v>
+        <v>0.8474112708057912</v>
       </c>
       <c r="D12">
-        <v>1.001587085480181</v>
+        <v>0.8700993505834351</v>
       </c>
       <c r="E12">
-        <v>1.001804489229527</v>
+        <v>0.8752768379166262</v>
       </c>
       <c r="F12">
-        <v>0.9931837220361913</v>
+        <v>0.796666250811411</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.004931797492528</v>
+        <v>0.8854443999813745</v>
       </c>
       <c r="K12">
-        <v>1.005333394152456</v>
+        <v>0.8882244265223037</v>
       </c>
       <c r="L12">
-        <v>1.005549917675708</v>
+        <v>0.8932591848869811</v>
       </c>
       <c r="M12">
-        <v>0.9969643836886336</v>
+        <v>0.8170970282764646</v>
       </c>
       <c r="N12">
-        <v>1.005272112154014</v>
+        <v>0.9616232527172974</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9981089898545343</v>
+        <v>0.8483983466283112</v>
       </c>
       <c r="D13">
-        <v>1.00168820133247</v>
+        <v>0.8709551372611599</v>
       </c>
       <c r="E13">
-        <v>1.001901866611172</v>
+        <v>0.8760977243900175</v>
       </c>
       <c r="F13">
-        <v>0.9933322208667903</v>
+        <v>0.7980179840551632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.005023996734403</v>
+        <v>0.8862408085070266</v>
       </c>
       <c r="K13">
-        <v>1.005424078780855</v>
+        <v>0.8890022136119516</v>
       </c>
       <c r="L13">
-        <v>1.005636881635681</v>
+        <v>0.8940038994044498</v>
       </c>
       <c r="M13">
-        <v>0.9971021502599338</v>
+        <v>0.8183385922974474</v>
       </c>
       <c r="N13">
-        <v>1.00530506513454</v>
+        <v>0.9619139319514488</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984763221568793</v>
+        <v>0.8515878074720118</v>
       </c>
       <c r="D14">
-        <v>1.002019309300046</v>
+        <v>0.8737214469399284</v>
       </c>
       <c r="E14">
-        <v>1.002220731678253</v>
+        <v>0.8787515382482651</v>
       </c>
       <c r="F14">
-        <v>0.9938184960838866</v>
+        <v>0.8023771041334808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.005325872665321</v>
+        <v>0.8888140685944422</v>
       </c>
       <c r="K14">
-        <v>1.005720998267354</v>
+        <v>0.891515621275428</v>
       </c>
       <c r="L14">
-        <v>1.005921615865152</v>
+        <v>0.8964106203090441</v>
       </c>
       <c r="M14">
-        <v>0.9975532599130635</v>
+        <v>0.8223431732016536</v>
       </c>
       <c r="N14">
-        <v>1.005412930209645</v>
+        <v>0.9628535840224929</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9987024733256594</v>
+        <v>0.8535199803236837</v>
       </c>
       <c r="D15">
-        <v>1.002223159157143</v>
+        <v>0.8753980674473441</v>
       </c>
       <c r="E15">
-        <v>1.00241704320311</v>
+        <v>0.8803602098806587</v>
       </c>
       <c r="F15">
-        <v>0.9941178838525471</v>
+        <v>0.8050116021689885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.005511699354269</v>
+        <v>0.890372860325132</v>
       </c>
       <c r="K15">
-        <v>1.005903775928104</v>
+        <v>0.8930383876754265</v>
       </c>
       <c r="L15">
-        <v>1.006096890186832</v>
+        <v>0.8978688858788754</v>
       </c>
       <c r="M15">
-        <v>0.9978309805352875</v>
+        <v>0.8247639260803834</v>
       </c>
       <c r="N15">
-        <v>1.005479307154862</v>
+        <v>0.9634231132373448</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000016141277716</v>
+        <v>0.8643103936695273</v>
       </c>
       <c r="D16">
-        <v>1.003407289689546</v>
+        <v>0.8847721312888688</v>
       </c>
       <c r="E16">
-        <v>1.003557371151442</v>
+        <v>0.8893574924073131</v>
       </c>
       <c r="F16">
-        <v>0.9958571041249782</v>
+        <v>0.8196428490453822</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.006590737850094</v>
+        <v>0.8990767196708477</v>
       </c>
       <c r="K16">
-        <v>1.006965140220007</v>
+        <v>0.9015442036802443</v>
       </c>
       <c r="L16">
-        <v>1.007114647702512</v>
+        <v>0.906016210081904</v>
       </c>
       <c r="M16">
-        <v>0.9994440778352315</v>
+        <v>0.8382145683671193</v>
       </c>
       <c r="N16">
-        <v>1.005864402752942</v>
+        <v>0.9666073096985163</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000837890047494</v>
+        <v>0.8707216689334434</v>
       </c>
       <c r="D17">
-        <v>1.004148012526776</v>
+        <v>0.8903503638408221</v>
       </c>
       <c r="E17">
-        <v>1.004270681252198</v>
+        <v>0.8947139165628315</v>
       </c>
       <c r="F17">
-        <v>0.9969451783998144</v>
+        <v>0.8282756784369785</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.00726537143314</v>
+        <v>0.9042469502650239</v>
       </c>
       <c r="K17">
-        <v>1.007628750151266</v>
+        <v>0.9065992077942022</v>
       </c>
       <c r="L17">
-        <v>1.007750960917954</v>
+        <v>0.9108595149767038</v>
       </c>
       <c r="M17">
-        <v>1.000453025260632</v>
+        <v>0.8461552668192213</v>
       </c>
       <c r="N17">
-        <v>1.006104875074253</v>
+        <v>0.9685017282170503</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001316394315355</v>
+        <v>0.8743473971358244</v>
       </c>
       <c r="D18">
-        <v>1.004579336601009</v>
+        <v>0.8935077251210122</v>
       </c>
       <c r="E18">
-        <v>1.004686038224455</v>
+        <v>0.8977464864405664</v>
       </c>
       <c r="F18">
-        <v>0.9975788125116326</v>
+        <v>0.8331393948448563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.007658085910058</v>
+        <v>0.9071703325779055</v>
       </c>
       <c r="K18">
-        <v>1.008015057034475</v>
+        <v>0.9094582061186511</v>
       </c>
       <c r="L18">
-        <v>1.008121365968805</v>
+        <v>0.9135991953638143</v>
       </c>
       <c r="M18">
-        <v>1.001040499793651</v>
+        <v>0.850630252745728</v>
       </c>
       <c r="N18">
-        <v>1.006244750435481</v>
+        <v>0.969573729896168</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001479416177004</v>
+        <v>0.8755655785116554</v>
       </c>
       <c r="D19">
-        <v>1.00472628477985</v>
+        <v>0.894568981467794</v>
       </c>
       <c r="E19">
-        <v>1.004827545758709</v>
+        <v>0.8987659169881157</v>
       </c>
       <c r="F19">
-        <v>0.9977946941425103</v>
+        <v>0.8347706756898247</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.007791858856405</v>
+        <v>0.9081524479384742</v>
       </c>
       <c r="K19">
-        <v>1.00814664890886</v>
+        <v>0.9104188137597393</v>
       </c>
       <c r="L19">
-        <v>1.0082475390508</v>
+        <v>0.9145197772705252</v>
       </c>
       <c r="M19">
-        <v>1.001240641009048</v>
+        <v>0.8521313292820789</v>
       </c>
       <c r="N19">
-        <v>1.006292378869608</v>
+        <v>0.9699339967684166</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000749808057148</v>
+        <v>0.8700458763134524</v>
       </c>
       <c r="D20">
-        <v>1.004068615447174</v>
+        <v>0.8897620865055867</v>
       </c>
       <c r="E20">
-        <v>1.004194222981725</v>
+        <v>0.8941489497733467</v>
       </c>
       <c r="F20">
-        <v>0.996828544431229</v>
+        <v>0.8273677073906459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.007193071390838</v>
+        <v>0.9037020242123961</v>
       </c>
       <c r="K20">
-        <v>1.007557630526282</v>
+        <v>0.9060663438428384</v>
       </c>
       <c r="L20">
-        <v>1.007682767903857</v>
+        <v>0.9103489220720827</v>
       </c>
       <c r="M20">
-        <v>1.000344881465635</v>
+        <v>0.8453199566484102</v>
       </c>
       <c r="N20">
-        <v>1.0060791149003</v>
+        <v>0.9683019692319146</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9983681883574549</v>
+        <v>0.8506555827250417</v>
       </c>
       <c r="D21">
-        <v>1.001921838967306</v>
+        <v>0.8729127330581847</v>
       </c>
       <c r="E21">
-        <v>1.00212686554567</v>
+        <v>0.8779756619378081</v>
       </c>
       <c r="F21">
-        <v>0.9936753466134783</v>
+        <v>0.801104353290306</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.005237013008494</v>
+        <v>0.8880619669291324</v>
       </c>
       <c r="K21">
-        <v>1.005633597157729</v>
+        <v>0.8907809635907838</v>
       </c>
       <c r="L21">
-        <v>1.005837802090326</v>
+        <v>0.8957071174757203</v>
       </c>
       <c r="M21">
-        <v>0.997420465916857</v>
+        <v>0.8211738244894311</v>
       </c>
       <c r="N21">
-        <v>1.005381183798787</v>
+        <v>0.9625788773571078</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9968631906893449</v>
+        <v>0.8370627174866395</v>
       </c>
       <c r="D22">
-        <v>1.000565264582736</v>
+        <v>0.8611368255771532</v>
       </c>
       <c r="E22">
-        <v>1.000820438517567</v>
+        <v>0.8666827094349826</v>
       </c>
       <c r="F22">
-        <v>0.9916831474676431</v>
+        <v>0.7824139123831322</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.003999810658025</v>
+        <v>0.8770939030130247</v>
       </c>
       <c r="K22">
-        <v>1.004416738918358</v>
+        <v>0.8800720348222809</v>
       </c>
       <c r="L22">
-        <v>1.00467084750642</v>
+        <v>0.8854551638517658</v>
       </c>
       <c r="M22">
-        <v>0.9955720865436291</v>
+        <v>0.8040134982193642</v>
       </c>
       <c r="N22">
-        <v>1.004938784099908</v>
+        <v>0.9585795938444168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9976617515572034</v>
+        <v>0.8444250944531105</v>
       </c>
       <c r="D23">
-        <v>1.001285068720394</v>
+        <v>0.867511322790168</v>
       </c>
       <c r="E23">
-        <v>1.001513637737119</v>
+        <v>0.8727946414682585</v>
       </c>
       <c r="F23">
-        <v>0.9927401879471073</v>
+        <v>0.7925689704264522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.004656384205627</v>
+        <v>0.8830349491267264</v>
       </c>
       <c r="K23">
-        <v>1.005062507507651</v>
+        <v>0.8858715974083222</v>
       </c>
       <c r="L23">
-        <v>1.005290142572133</v>
+        <v>0.8910065713630851</v>
       </c>
       <c r="M23">
-        <v>0.9965528862430468</v>
+        <v>0.8133343777039799</v>
       </c>
       <c r="N23">
-        <v>1.00517365239791</v>
+        <v>0.9607442415370199</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000789611011587</v>
+        <v>0.8703515862485971</v>
       </c>
       <c r="D24">
-        <v>1.004104493814722</v>
+        <v>0.8900281984442453</v>
       </c>
       <c r="E24">
-        <v>1.004228773359167</v>
+        <v>0.894404514663075</v>
       </c>
       <c r="F24">
-        <v>0.9968812494534708</v>
+        <v>0.8277785050823718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.007225743100768</v>
+        <v>0.90394853531666</v>
       </c>
       <c r="K24">
-        <v>1.007589768787543</v>
+        <v>0.9063073959694121</v>
       </c>
       <c r="L24">
-        <v>1.007713583694287</v>
+        <v>0.9105798981457675</v>
       </c>
       <c r="M24">
-        <v>1.000393750163362</v>
+        <v>0.8456978763165216</v>
       </c>
       <c r="N24">
-        <v>1.006090756012724</v>
+        <v>0.9683923326645171</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.004387773426811</v>
+        <v>0.8960104594464428</v>
       </c>
       <c r="D25">
-        <v>1.007347887935683</v>
+        <v>0.9124120256491465</v>
       </c>
       <c r="E25">
-        <v>1.007352013251212</v>
+        <v>0.915914167041205</v>
       </c>
       <c r="F25">
-        <v>1.001646885398629</v>
+        <v>0.8619558669468541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.010176558077595</v>
+        <v>0.9246270358793418</v>
       </c>
       <c r="K25">
-        <v>1.010492603475837</v>
+        <v>0.9265414270448934</v>
       </c>
       <c r="L25">
-        <v>1.010496715010997</v>
+        <v>0.929974977314463</v>
       </c>
       <c r="M25">
-        <v>1.004810763952434</v>
+        <v>0.8771561861835337</v>
       </c>
       <c r="N25">
-        <v>1.007139822571723</v>
+        <v>0.9759847238044921</v>
       </c>
     </row>
   </sheetData>
